--- a/outputs/Fatal_rate_ranges_M.xlsx
+++ b/outputs/Fatal_rate_ranges_M.xlsx
@@ -121,19 +121,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>4.408857951083267</v>
+        <v>4.408471239920353</v>
       </c>
       <c r="C2" t="n">
-        <v>3.7705879181179736</v>
+        <v>3.7713369926242617</v>
       </c>
       <c r="D2" t="n">
-        <v>5.485494500874635</v>
+        <v>5.486789394827399</v>
       </c>
       <c r="E2" t="n">
-        <v>2.645155245677462</v>
+        <v>2.646115007455314</v>
       </c>
       <c r="F2" t="n">
-        <v>3.9298537683793255</v>
+        <v>3.930351602768178</v>
       </c>
     </row>
     <row r="3">
@@ -141,19 +141,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>3.3105136645504407</v>
+        <v>3.30183120281022</v>
       </c>
       <c r="C3" t="n">
-        <v>2.4381474383259922</v>
+        <v>2.443765439518165</v>
       </c>
       <c r="D3" t="n">
-        <v>3.049367229927442</v>
+        <v>3.0369490341634044</v>
       </c>
       <c r="E3" t="n">
-        <v>1.6985267556742343</v>
+        <v>1.6993589808126501</v>
       </c>
       <c r="F3" t="n">
-        <v>2.6254059452780756</v>
+        <v>2.6215520705514135</v>
       </c>
     </row>
     <row r="4">
@@ -161,19 +161,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>16.021124973865568</v>
+        <v>16.050466155341255</v>
       </c>
       <c r="C4" t="n">
-        <v>19.08287622086459</v>
+        <v>19.0776240096878</v>
       </c>
       <c r="D4" t="n">
-        <v>20.142130012641733</v>
+        <v>20.09897968662777</v>
       </c>
       <c r="E4" t="n">
-        <v>18.70658007021955</v>
+        <v>18.72720556938894</v>
       </c>
       <c r="F4" t="n">
-        <v>17.26108429892445</v>
+        <v>17.27578521958063</v>
       </c>
     </row>
     <row r="5">
@@ -181,19 +181,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>10.06123350751451</v>
+        <v>10.013011471470689</v>
       </c>
       <c r="C5" t="n">
-        <v>12.53588014215949</v>
+        <v>12.451720930070243</v>
       </c>
       <c r="D5" t="n">
-        <v>9.851244370601439</v>
+        <v>9.806050880650766</v>
       </c>
       <c r="E5" t="n">
-        <v>4.056558290219725</v>
+        <v>4.067007027912497</v>
       </c>
       <c r="F5" t="n">
-        <v>8.19311309430022</v>
+        <v>8.160773229276558</v>
       </c>
     </row>
     <row r="6">
@@ -201,19 +201,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>23.0815212766282</v>
+        <v>22.886726510608675</v>
       </c>
       <c r="C6" t="n">
-        <v>25.85643831892677</v>
+        <v>25.836399388181224</v>
       </c>
       <c r="D6" t="n">
-        <v>19.122013919875176</v>
+        <v>19.172218888465583</v>
       </c>
       <c r="E6" t="n">
-        <v>13.57194215702868</v>
+        <v>13.483551781884747</v>
       </c>
       <c r="F6" t="n">
-        <v>19.514264381611845</v>
+        <v>19.44302158230753</v>
       </c>
     </row>
     <row r="7">
@@ -221,19 +221,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>5.138269615656557</v>
+        <v>5.1404915570999306</v>
       </c>
       <c r="C7" t="n">
-        <v>1.693331315572402</v>
+        <v>1.7074676026771827</v>
       </c>
       <c r="D7" t="n">
-        <v>1.4042264628198655</v>
+        <v>1.415431303991695</v>
       </c>
       <c r="E7" t="n">
-        <v>0.729634287621851</v>
+        <v>0.737025308466376</v>
       </c>
       <c r="F7" t="n">
-        <v>1.2324969471643983</v>
+        <v>1.2419120194670241</v>
       </c>
     </row>
   </sheetData>
@@ -272,19 +272,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>4.410976539017376</v>
+        <v>4.407329607679603</v>
       </c>
       <c r="C2" t="n">
-        <v>3.7664037757427784</v>
+        <v>3.772583832591368</v>
       </c>
       <c r="D2" t="n">
-        <v>5.480299690028812</v>
+        <v>5.481033154106145</v>
       </c>
       <c r="E2" t="n">
-        <v>2.6451354334032047</v>
+        <v>2.646152477374703</v>
       </c>
       <c r="F2" t="n">
-        <v>3.9315008694368694</v>
+        <v>3.9300765416464345</v>
       </c>
     </row>
     <row r="3">
@@ -292,19 +292,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>3.302521264107428</v>
+        <v>3.3006123337488855</v>
       </c>
       <c r="C3" t="n">
-        <v>2.429177713247952</v>
+        <v>2.437127276742732</v>
       </c>
       <c r="D3" t="n">
-        <v>3.0500779589931684</v>
+        <v>3.032998734173299</v>
       </c>
       <c r="E3" t="n">
-        <v>1.6950216953688368</v>
+        <v>1.694843881264194</v>
       </c>
       <c r="F3" t="n">
-        <v>2.6239724070109673</v>
+        <v>2.6204536516986305</v>
       </c>
     </row>
     <row r="4">
@@ -312,19 +312,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>16.0171955720776</v>
+        <v>16.024205320352866</v>
       </c>
       <c r="C4" t="n">
-        <v>19.061812255696232</v>
+        <v>19.048351002754572</v>
       </c>
       <c r="D4" t="n">
-        <v>20.122984562534015</v>
+        <v>20.08495875743586</v>
       </c>
       <c r="E4" t="n">
-        <v>18.682203105076976</v>
+        <v>18.679876029662925</v>
       </c>
       <c r="F4" t="n">
-        <v>17.242005920660425</v>
+        <v>17.274421485714818</v>
       </c>
     </row>
     <row r="5">
@@ -332,19 +332,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>10.033337524222276</v>
+        <v>9.94014984729603</v>
       </c>
       <c r="C5" t="n">
-        <v>12.536303580394812</v>
+        <v>12.428538336832863</v>
       </c>
       <c r="D5" t="n">
-        <v>9.83669630724572</v>
+        <v>9.68636655625328</v>
       </c>
       <c r="E5" t="n">
-        <v>4.0407408276844645</v>
+        <v>4.035291662612378</v>
       </c>
       <c r="F5" t="n">
-        <v>8.177706952773274</v>
+        <v>8.15704918355538</v>
       </c>
     </row>
     <row r="6">
@@ -352,19 +352,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>22.967999616532964</v>
+        <v>22.723624905403966</v>
       </c>
       <c r="C6" t="n">
-        <v>25.846057168408272</v>
+        <v>25.74122747104358</v>
       </c>
       <c r="D6" t="n">
-        <v>18.973366569128498</v>
+        <v>19.069326752743905</v>
       </c>
       <c r="E6" t="n">
-        <v>13.556490276817101</v>
+        <v>13.392913997256482</v>
       </c>
       <c r="F6" t="n">
-        <v>19.495338376066393</v>
+        <v>19.419273588064</v>
       </c>
     </row>
     <row r="7">
@@ -372,19 +372,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>4.850541576690253</v>
+        <v>4.824003901379008</v>
       </c>
       <c r="C7" t="n">
-        <v>1.6354784421291204</v>
+        <v>1.639202756958014</v>
       </c>
       <c r="D7" t="n">
-        <v>1.3465337935702606</v>
+        <v>1.3356864783007758</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7048367162880955</v>
+        <v>0.711848767707181</v>
       </c>
       <c r="F7" t="n">
-        <v>1.219840925923417</v>
+        <v>1.221786490837021</v>
       </c>
     </row>
   </sheetData>
@@ -423,19 +423,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>4.2716400885133385</v>
+        <v>4.261184066873828</v>
       </c>
       <c r="C2" t="n">
-        <v>3.612282625879472</v>
+        <v>3.612746684519427</v>
       </c>
       <c r="D2" t="n">
-        <v>5.2467431667988675</v>
+        <v>5.265044119454769</v>
       </c>
       <c r="E2" t="n">
-        <v>2.524288634876969</v>
+        <v>2.525917259754231</v>
       </c>
       <c r="F2" t="n">
-        <v>3.8499466704675074</v>
+        <v>3.8525203506376564</v>
       </c>
     </row>
     <row r="3">
@@ -443,19 +443,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>3.0778079046309643</v>
+        <v>3.061451667518547</v>
       </c>
       <c r="C3" t="n">
-        <v>2.1712676646285796</v>
+        <v>2.1949274910648837</v>
       </c>
       <c r="D3" t="n">
-        <v>2.7484098665848404</v>
+        <v>2.744567202023992</v>
       </c>
       <c r="E3" t="n">
-        <v>1.5222032125555707</v>
+        <v>1.5230341046333218</v>
       </c>
       <c r="F3" t="n">
-        <v>2.502550186298614</v>
+        <v>2.4996435314799137</v>
       </c>
     </row>
     <row r="4">
@@ -463,19 +463,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>15.312699256338139</v>
+        <v>15.323282447799139</v>
       </c>
       <c r="C4" t="n">
-        <v>17.66441003653338</v>
+        <v>17.70852206591987</v>
       </c>
       <c r="D4" t="n">
-        <v>18.180320866040066</v>
+        <v>18.289188777760284</v>
       </c>
       <c r="E4" t="n">
-        <v>16.67685668443345</v>
+        <v>16.944163891384378</v>
       </c>
       <c r="F4" t="n">
-        <v>16.67265051194156</v>
+        <v>16.692792052936184</v>
       </c>
     </row>
     <row r="5">
@@ -483,19 +483,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>8.413713952717417</v>
+        <v>8.467785822411184</v>
       </c>
       <c r="C5" t="n">
-        <v>10.612027559183582</v>
+        <v>10.550401978525036</v>
       </c>
       <c r="D5" t="n">
-        <v>7.873203322149915</v>
+        <v>7.9107025762166945</v>
       </c>
       <c r="E5" t="n">
-        <v>3.254448866091991</v>
+        <v>3.3464826961589518</v>
       </c>
       <c r="F5" t="n">
-        <v>7.460807265109142</v>
+        <v>7.456267072864707</v>
       </c>
     </row>
     <row r="6">
@@ -503,19 +503,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>20.153232277566037</v>
+        <v>20.062186578630236</v>
       </c>
       <c r="C6" t="n">
-        <v>23.436748205405333</v>
+        <v>23.395281030662243</v>
       </c>
       <c r="D6" t="n">
-        <v>16.065336072489586</v>
+        <v>15.919736461744172</v>
       </c>
       <c r="E6" t="n">
-        <v>12.114916259482587</v>
+        <v>12.038989034284961</v>
       </c>
       <c r="F6" t="n">
-        <v>18.310284889159437</v>
+        <v>18.258726054072127</v>
       </c>
     </row>
     <row r="7">
@@ -523,19 +523,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>2.6436088638605706</v>
+        <v>2.63023956618701</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9798038965806141</v>
+        <v>1.0459357311313864</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8605081480589452</v>
+        <v>0.8693329198644859</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4722596607513539</v>
+        <v>0.4733507850053982</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9389701019394223</v>
+        <v>0.9604845962620285</v>
       </c>
     </row>
   </sheetData>
@@ -574,19 +574,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>4.550172095652054</v>
+        <v>4.553726450312983</v>
       </c>
       <c r="C2" t="n">
-        <v>3.9381198768503003</v>
+        <v>3.934043525904808</v>
       </c>
       <c r="D2" t="n">
-        <v>5.731673470914977</v>
+        <v>5.7402603614455705</v>
       </c>
       <c r="E2" t="n">
-        <v>2.7711557230501707</v>
+        <v>2.7641267809389243</v>
       </c>
       <c r="F2" t="n">
-        <v>4.007309045188619</v>
+        <v>4.01479817341407</v>
       </c>
     </row>
     <row r="3">
@@ -594,19 +594,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>3.5679501138503675</v>
+        <v>3.558944381644464</v>
       </c>
       <c r="C3" t="n">
-        <v>2.7148780304318154</v>
+        <v>2.7246614557883104</v>
       </c>
       <c r="D3" t="n">
-        <v>3.350071322144495</v>
+        <v>3.3611065901741517</v>
       </c>
       <c r="E3" t="n">
-        <v>1.8954465401601874</v>
+        <v>1.887108946404845</v>
       </c>
       <c r="F3" t="n">
-        <v>2.750003856305116</v>
+        <v>2.746341849314366</v>
       </c>
     </row>
     <row r="4">
@@ -614,19 +614,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>16.749255877696243</v>
+        <v>16.781189025033346</v>
       </c>
       <c r="C4" t="n">
-        <v>20.647371219854882</v>
+        <v>20.507697608127295</v>
       </c>
       <c r="D4" t="n">
-        <v>22.136645826969893</v>
+        <v>21.971327903842134</v>
       </c>
       <c r="E4" t="n">
-        <v>20.924780982859264</v>
+        <v>20.732883043222927</v>
       </c>
       <c r="F4" t="n">
-        <v>17.87867426707635</v>
+        <v>17.84380525909064</v>
       </c>
     </row>
     <row r="5">
@@ -634,19 +634,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>11.723971068067307</v>
+        <v>11.851668970790913</v>
       </c>
       <c r="C5" t="n">
-        <v>14.657079574751723</v>
+        <v>14.434341083818682</v>
       </c>
       <c r="D5" t="n">
-        <v>11.977852653898887</v>
+        <v>12.147048917371151</v>
       </c>
       <c r="E5" t="n">
-        <v>4.918319197400329</v>
+        <v>4.900623212255168</v>
       </c>
       <c r="F5" t="n">
-        <v>8.965921769340236</v>
+        <v>8.919477320494323</v>
       </c>
     </row>
     <row r="6">
@@ -654,19 +654,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>26.333499142007017</v>
+        <v>26.163031796772955</v>
       </c>
       <c r="C6" t="n">
-        <v>28.25842499702428</v>
+        <v>28.543548899203785</v>
       </c>
       <c r="D6" t="n">
-        <v>22.766048331855913</v>
+        <v>22.659395869566822</v>
       </c>
       <c r="E6" t="n">
-        <v>15.081212109435377</v>
+        <v>15.153932447091194</v>
       </c>
       <c r="F6" t="n">
-        <v>20.729870774628345</v>
+        <v>20.76893717347892</v>
       </c>
     </row>
     <row r="7">
@@ -674,19 +674,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>8.626269978013198</v>
+        <v>8.814018919404283</v>
       </c>
       <c r="C7" t="n">
-        <v>2.606521268030691</v>
+        <v>2.5650016287715984</v>
       </c>
       <c r="D7" t="n">
-        <v>2.190248106762514</v>
+        <v>2.226744044068382</v>
       </c>
       <c r="E7" t="n">
-        <v>1.086534613596059</v>
+        <v>1.0892415547561443</v>
       </c>
       <c r="F7" t="n">
-        <v>1.5635513660143108</v>
+        <v>1.5910896906921226</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/Fatal_rate_ranges_M.xlsx
+++ b/outputs/Fatal_rate_ranges_M.xlsx
@@ -35,10 +35,10 @@
     <t>car/taxi</t>
   </si>
   <si>
-    <t>light goods</t>
-  </si>
-  <si>
-    <t>heavy goods</t>
+    <t>van</t>
+  </si>
+  <si>
+    <t>lorry</t>
   </si>
   <si>
     <t>motorcycle</t>
@@ -121,19 +121,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>4.408471239920353</v>
+        <v>4.4151396369313165</v>
       </c>
       <c r="C2" t="n">
-        <v>3.7713369926242617</v>
+        <v>3.7711676559002907</v>
       </c>
       <c r="D2" t="n">
-        <v>5.486789394827399</v>
+        <v>5.4833909095509314</v>
       </c>
       <c r="E2" t="n">
-        <v>2.646115007455314</v>
+        <v>2.6434965643222883</v>
       </c>
       <c r="F2" t="n">
-        <v>3.930351602768178</v>
+        <v>3.931372644906297</v>
       </c>
     </row>
     <row r="3">
@@ -141,19 +141,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>3.30183120281022</v>
+        <v>3.2944168478011604</v>
       </c>
       <c r="C3" t="n">
-        <v>2.443765439518165</v>
+        <v>2.4386713509470788</v>
       </c>
       <c r="D3" t="n">
-        <v>3.0369490341634044</v>
+        <v>3.030701270140836</v>
       </c>
       <c r="E3" t="n">
-        <v>1.6993589808126501</v>
+        <v>1.7035782217459488</v>
       </c>
       <c r="F3" t="n">
-        <v>2.6215520705514135</v>
+        <v>2.6181634790175554</v>
       </c>
     </row>
     <row r="4">
@@ -161,19 +161,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>16.050466155341255</v>
+        <v>16.041206213557164</v>
       </c>
       <c r="C4" t="n">
-        <v>19.0776240096878</v>
+        <v>19.102099995259564</v>
       </c>
       <c r="D4" t="n">
-        <v>20.09897968662777</v>
+        <v>20.097756706112666</v>
       </c>
       <c r="E4" t="n">
-        <v>18.72720556938894</v>
+        <v>18.70197355391261</v>
       </c>
       <c r="F4" t="n">
-        <v>17.27578521958063</v>
+        <v>17.27223623696062</v>
       </c>
     </row>
     <row r="5">
@@ -181,19 +181,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>10.013011471470689</v>
+        <v>10.057335501557677</v>
       </c>
       <c r="C5" t="n">
-        <v>12.451720930070243</v>
+        <v>12.428766572404774</v>
       </c>
       <c r="D5" t="n">
-        <v>9.806050880650766</v>
+        <v>9.868352661393699</v>
       </c>
       <c r="E5" t="n">
-        <v>4.067007027912497</v>
+        <v>4.057077077101366</v>
       </c>
       <c r="F5" t="n">
-        <v>8.160773229276558</v>
+        <v>8.172104047970361</v>
       </c>
     </row>
     <row r="6">
@@ -201,19 +201,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>22.886726510608675</v>
+        <v>22.92401215404581</v>
       </c>
       <c r="C6" t="n">
-        <v>25.836399388181224</v>
+        <v>25.908772927729466</v>
       </c>
       <c r="D6" t="n">
-        <v>19.172218888465583</v>
+        <v>19.11737602999527</v>
       </c>
       <c r="E6" t="n">
-        <v>13.483551781884747</v>
+        <v>13.532467741818603</v>
       </c>
       <c r="F6" t="n">
-        <v>19.44302158230753</v>
+        <v>19.48438223048522</v>
       </c>
     </row>
     <row r="7">
@@ -221,19 +221,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>5.1404915570999306</v>
+        <v>5.108548652920153</v>
       </c>
       <c r="C7" t="n">
-        <v>1.7074676026771827</v>
+        <v>1.710876233771123</v>
       </c>
       <c r="D7" t="n">
-        <v>1.415431303991695</v>
+        <v>1.4284341858201288</v>
       </c>
       <c r="E7" t="n">
-        <v>0.737025308466376</v>
+        <v>0.7350405790411106</v>
       </c>
       <c r="F7" t="n">
-        <v>1.2419120194670241</v>
+        <v>1.2433651943739956</v>
       </c>
     </row>
   </sheetData>
@@ -272,19 +272,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>4.407329607679603</v>
+        <v>4.418551932322057</v>
       </c>
       <c r="C2" t="n">
-        <v>3.772583832591368</v>
+        <v>3.76785896876474</v>
       </c>
       <c r="D2" t="n">
-        <v>5.481033154106145</v>
+        <v>5.480867972620296</v>
       </c>
       <c r="E2" t="n">
-        <v>2.646152477374703</v>
+        <v>2.6422637369238355</v>
       </c>
       <c r="F2" t="n">
-        <v>3.9300765416464345</v>
+        <v>3.9306719774828194</v>
       </c>
     </row>
     <row r="3">
@@ -292,19 +292,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>3.3006123337488855</v>
+        <v>3.293631446211991</v>
       </c>
       <c r="C3" t="n">
-        <v>2.437127276742732</v>
+        <v>2.436673938523467</v>
       </c>
       <c r="D3" t="n">
-        <v>3.032998734173299</v>
+        <v>3.027615205970023</v>
       </c>
       <c r="E3" t="n">
-        <v>1.694843881264194</v>
+        <v>1.695611644566232</v>
       </c>
       <c r="F3" t="n">
-        <v>2.6204536516986305</v>
+        <v>2.6190257589582533</v>
       </c>
     </row>
     <row r="4">
@@ -312,19 +312,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>16.024205320352866</v>
+        <v>16.043201101125227</v>
       </c>
       <c r="C4" t="n">
-        <v>19.048351002754572</v>
+        <v>19.084521280358956</v>
       </c>
       <c r="D4" t="n">
-        <v>20.08495875743586</v>
+        <v>20.05201832024916</v>
       </c>
       <c r="E4" t="n">
-        <v>18.679876029662925</v>
+        <v>18.65449772825528</v>
       </c>
       <c r="F4" t="n">
-        <v>17.274421485714818</v>
+        <v>17.27467465279599</v>
       </c>
     </row>
     <row r="5">
@@ -332,19 +332,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>9.94014984729603</v>
+        <v>10.008192138881967</v>
       </c>
       <c r="C5" t="n">
-        <v>12.428538336832863</v>
+        <v>12.391306948855176</v>
       </c>
       <c r="D5" t="n">
-        <v>9.68636655625328</v>
+        <v>9.737401844433142</v>
       </c>
       <c r="E5" t="n">
-        <v>4.035291662612378</v>
+        <v>4.014620976797044</v>
       </c>
       <c r="F5" t="n">
-        <v>8.15704918355538</v>
+        <v>8.145151009500353</v>
       </c>
     </row>
     <row r="6">
@@ -352,19 +352,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>22.723624905403966</v>
+        <v>22.82602198908156</v>
       </c>
       <c r="C6" t="n">
-        <v>25.74122747104358</v>
+        <v>25.918629633632357</v>
       </c>
       <c r="D6" t="n">
-        <v>19.069326752743905</v>
+        <v>18.938390694368273</v>
       </c>
       <c r="E6" t="n">
-        <v>13.392913997256482</v>
+        <v>13.462031425076564</v>
       </c>
       <c r="F6" t="n">
-        <v>19.419273588064</v>
+        <v>19.447033824724627</v>
       </c>
     </row>
     <row r="7">
@@ -372,19 +372,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>4.824003901379008</v>
+        <v>4.71371174920569</v>
       </c>
       <c r="C7" t="n">
-        <v>1.639202756958014</v>
+        <v>1.644084861902837</v>
       </c>
       <c r="D7" t="n">
-        <v>1.3356864783007758</v>
+        <v>1.383934485398297</v>
       </c>
       <c r="E7" t="n">
-        <v>0.711848767707181</v>
+        <v>0.7136738556469473</v>
       </c>
       <c r="F7" t="n">
-        <v>1.221786490837021</v>
+        <v>1.2268040804629687</v>
       </c>
     </row>
   </sheetData>
@@ -423,19 +423,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>4.261184066873828</v>
+        <v>4.266719367012875</v>
       </c>
       <c r="C2" t="n">
-        <v>3.612746684519427</v>
+        <v>3.6191421353928646</v>
       </c>
       <c r="D2" t="n">
-        <v>5.265044119454769</v>
+        <v>5.245471786810901</v>
       </c>
       <c r="E2" t="n">
-        <v>2.525917259754231</v>
+        <v>2.5297845787697533</v>
       </c>
       <c r="F2" t="n">
-        <v>3.8525203506376564</v>
+        <v>3.8551490435672333</v>
       </c>
     </row>
     <row r="3">
@@ -443,19 +443,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>3.061451667518547</v>
+        <v>3.066102502571442</v>
       </c>
       <c r="C3" t="n">
-        <v>2.1949274910648837</v>
+        <v>2.1840118993747386</v>
       </c>
       <c r="D3" t="n">
-        <v>2.744567202023992</v>
+        <v>2.742002559677885</v>
       </c>
       <c r="E3" t="n">
-        <v>1.5230341046333218</v>
+        <v>1.5232659332529144</v>
       </c>
       <c r="F3" t="n">
-        <v>2.4996435314799137</v>
+        <v>2.497494700024752</v>
       </c>
     </row>
     <row r="4">
@@ -463,19 +463,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>15.323282447799139</v>
+        <v>15.372300865637502</v>
       </c>
       <c r="C4" t="n">
-        <v>17.70852206591987</v>
+        <v>17.635442209929543</v>
       </c>
       <c r="D4" t="n">
-        <v>18.289188777760284</v>
+        <v>18.060052772558475</v>
       </c>
       <c r="E4" t="n">
-        <v>16.944163891384378</v>
+        <v>16.841135874360685</v>
       </c>
       <c r="F4" t="n">
-        <v>16.692792052936184</v>
+        <v>16.67190943312802</v>
       </c>
     </row>
     <row r="5">
@@ -483,19 +483,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>8.467785822411184</v>
+        <v>8.43813475584457</v>
       </c>
       <c r="C5" t="n">
-        <v>10.550401978525036</v>
+        <v>10.473558876174668</v>
       </c>
       <c r="D5" t="n">
-        <v>7.9107025762166945</v>
+        <v>8.011467311445735</v>
       </c>
       <c r="E5" t="n">
-        <v>3.3464826961589518</v>
+        <v>3.300456455726389</v>
       </c>
       <c r="F5" t="n">
-        <v>7.456267072864707</v>
+        <v>7.433569627310622</v>
       </c>
     </row>
     <row r="6">
@@ -503,19 +503,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>20.062186578630236</v>
+        <v>20.049192766056297</v>
       </c>
       <c r="C6" t="n">
-        <v>23.395281030662243</v>
+        <v>23.454676545599384</v>
       </c>
       <c r="D6" t="n">
-        <v>15.919736461744172</v>
+        <v>15.923798033310396</v>
       </c>
       <c r="E6" t="n">
-        <v>12.038989034284961</v>
+        <v>12.046243506455406</v>
       </c>
       <c r="F6" t="n">
-        <v>18.258726054072127</v>
+        <v>18.347179656565253</v>
       </c>
     </row>
     <row r="7">
@@ -523,19 +523,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>2.63023956618701</v>
+        <v>2.5809592257216276</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0459357311313864</v>
+        <v>1.0293818597991533</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8693329198644859</v>
+        <v>0.8409661051329211</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4733507850053982</v>
+        <v>0.466845365680859</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9604845962620285</v>
+        <v>0.9524821835445497</v>
       </c>
     </row>
   </sheetData>
@@ -574,19 +574,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>4.553726450312983</v>
+        <v>4.555772214326913</v>
       </c>
       <c r="C2" t="n">
-        <v>3.934043525904808</v>
+        <v>3.937156551462659</v>
       </c>
       <c r="D2" t="n">
-        <v>5.7402603614455705</v>
+        <v>5.716783119371994</v>
       </c>
       <c r="E2" t="n">
-        <v>2.7641267809389243</v>
+        <v>2.7613289939541223</v>
       </c>
       <c r="F2" t="n">
-        <v>4.01479817341407</v>
+        <v>4.007388685485368</v>
       </c>
     </row>
     <row r="3">
@@ -594,19 +594,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>3.558944381644464</v>
+        <v>3.5438870682425923</v>
       </c>
       <c r="C3" t="n">
-        <v>2.7246614557883104</v>
+        <v>2.719872015415003</v>
       </c>
       <c r="D3" t="n">
-        <v>3.3611065901741517</v>
+        <v>3.327953066149144</v>
       </c>
       <c r="E3" t="n">
-        <v>1.887108946404845</v>
+        <v>1.8978098847771496</v>
       </c>
       <c r="F3" t="n">
-        <v>2.746341849314366</v>
+        <v>2.7386207473545823</v>
       </c>
     </row>
     <row r="4">
@@ -614,19 +614,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>16.781189025033346</v>
+        <v>16.822480440592397</v>
       </c>
       <c r="C4" t="n">
-        <v>20.507697608127295</v>
+        <v>20.571112613194558</v>
       </c>
       <c r="D4" t="n">
-        <v>21.971327903842134</v>
+        <v>22.36174451515825</v>
       </c>
       <c r="E4" t="n">
-        <v>20.732883043222927</v>
+        <v>20.68881896959167</v>
       </c>
       <c r="F4" t="n">
-        <v>17.84380525909064</v>
+        <v>17.836081448167665</v>
       </c>
     </row>
     <row r="5">
@@ -634,19 +634,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>11.851668970790913</v>
+        <v>11.85163195251912</v>
       </c>
       <c r="C5" t="n">
-        <v>14.434341083818682</v>
+        <v>14.512923056338273</v>
       </c>
       <c r="D5" t="n">
-        <v>12.147048917371151</v>
+        <v>12.026163322696128</v>
       </c>
       <c r="E5" t="n">
-        <v>4.900623212255168</v>
+        <v>4.936649176817264</v>
       </c>
       <c r="F5" t="n">
-        <v>8.919477320494323</v>
+        <v>8.971049829035898</v>
       </c>
     </row>
     <row r="6">
@@ -654,19 +654,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>26.163031796772955</v>
+        <v>26.018705149590925</v>
       </c>
       <c r="C6" t="n">
-        <v>28.543548899203785</v>
+        <v>28.319531841253394</v>
       </c>
       <c r="D6" t="n">
-        <v>22.659395869566822</v>
+        <v>22.670027694754136</v>
       </c>
       <c r="E6" t="n">
-        <v>15.153932447091194</v>
+        <v>15.135221859071812</v>
       </c>
       <c r="F6" t="n">
-        <v>20.76893717347892</v>
+        <v>20.740149896034264</v>
       </c>
     </row>
     <row r="7">
@@ -674,19 +674,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>8.814018919404283</v>
+        <v>9.028242037502663</v>
       </c>
       <c r="C7" t="n">
-        <v>2.5650016287715984</v>
+        <v>2.6526229894777473</v>
       </c>
       <c r="D7" t="n">
-        <v>2.226744044068382</v>
+        <v>2.178907047210746</v>
       </c>
       <c r="E7" t="n">
-        <v>1.0892415547561443</v>
+        <v>1.0719872902324334</v>
       </c>
       <c r="F7" t="n">
-        <v>1.5910896906921226</v>
+        <v>1.6002729250966354</v>
       </c>
     </row>
   </sheetData>
